--- a/data from/LSD1 inhibition circumvents glucocorticoid-induced muscle wasting of male mice/LSD1 inhibition circumvents glucocorticoid-induced muscle wasting of male mice.xlsx
+++ b/data from/LSD1 inhibition circumvents glucocorticoid-induced muscle wasting of male mice/LSD1 inhibition circumvents glucocorticoid-induced muscle wasting of male mice.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -421,19 +421,19 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.5060640836302102</v>
+        <v>506064</v>
       </c>
       <c r="D2">
-        <v>0.91914547357557</v>
+        <v>919145</v>
       </c>
       <c r="E2">
-        <v>0.7236351291056954</v>
+        <v>723635</v>
       </c>
       <c r="F2">
-        <v>0.6855765510972515</v>
+        <v>685576</v>
       </c>
       <c r="G2">
-        <v>0.7231950267788625</v>
+        <v>723195</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -463,19 +463,19 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.5517923982034708</v>
+        <v>551792</v>
       </c>
       <c r="D3">
-        <v>0.5657328591857083</v>
+        <v>565732</v>
       </c>
       <c r="E3">
-        <v>0.7542618102460635</v>
+        <v>754261</v>
       </c>
       <c r="F3">
-        <v>0.8286781546953489</v>
+        <v>828678</v>
       </c>
       <c r="G3">
-        <v>1.294458861787251</v>
+        <v>1294458</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -505,19 +505,19 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.4500712404078636</v>
+        <v>450071</v>
       </c>
       <c r="D4">
-        <v>0.8178404752809183</v>
+        <v>817840</v>
       </c>
       <c r="E4">
-        <v>0.7576008518018543</v>
+        <v>757600</v>
       </c>
       <c r="F4">
-        <v>0.7059291153956384</v>
+        <v>705929</v>
       </c>
       <c r="G4">
-        <v>0.6669354319047268</v>
+        <v>666935</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -547,19 +547,19 @@
         </is>
       </c>
       <c r="C5">
-        <v>1.709636610745251</v>
+        <v>1709636</v>
       </c>
       <c r="D5">
-        <v>1.467403390806565</v>
+        <v>1467403</v>
       </c>
       <c r="E5">
-        <v>1.518216253300044</v>
+        <v>1518216</v>
       </c>
       <c r="F5">
-        <v>1.617364462794492</v>
+        <v>1617364</v>
       </c>
       <c r="G5">
-        <v>1.226433768095454</v>
+        <v>1226433</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -589,19 +589,19 @@
         </is>
       </c>
       <c r="C6">
-        <v>1.402735435508289</v>
+        <v>1402735</v>
       </c>
       <c r="D6">
-        <v>1.052066756491822</v>
+        <v>1052066</v>
       </c>
       <c r="E6">
-        <v>1.443468546440933</v>
+        <v>1443468</v>
       </c>
       <c r="F6">
-        <v>1.573985409193546</v>
+        <v>1573985</v>
       </c>
       <c r="G6">
-        <v>1.101895817922538</v>
+        <v>1101895</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -631,19 +631,19 @@
         </is>
       </c>
       <c r="C7">
-        <v>1.928332535739212</v>
+        <v>1928332</v>
       </c>
       <c r="D7">
-        <v>1.813127251437635</v>
+        <v>1813127</v>
       </c>
       <c r="E7">
-        <v>1.411192352914748</v>
+        <v>1411192</v>
       </c>
       <c r="F7">
-        <v>1.352677857603057</v>
+        <v>1352677</v>
       </c>
       <c r="G7">
-        <v>1.589369134022968</v>
+        <v>1589369</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -673,19 +673,19 @@
         </is>
       </c>
       <c r="C8">
-        <v>1.40150560954141</v>
+        <v>1401505</v>
       </c>
       <c r="D8">
-        <v>1.290155801285517</v>
+        <v>1290155</v>
       </c>
       <c r="E8">
-        <v>1.805546476790094</v>
+        <v>1805546</v>
       </c>
       <c r="F8">
-        <v>1.219066985682916</v>
+        <v>1219066</v>
       </c>
       <c r="G8">
-        <v>1.275532538026938</v>
+        <v>1275532</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -715,19 +715,19 @@
         </is>
       </c>
       <c r="C9">
-        <v>0.685184634133679</v>
+        <v>685184</v>
       </c>
       <c r="D9">
-        <v>0.8123655288297419</v>
+        <v>812365</v>
       </c>
       <c r="E9">
-        <v>0.3555399680160397</v>
+        <v>355539</v>
       </c>
       <c r="F9">
-        <v>0.5078138357951028</v>
+        <v>507813</v>
       </c>
       <c r="G9">
-        <v>0.3478903091513847</v>
+        <v>347890</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -757,19 +757,19 @@
         </is>
       </c>
       <c r="C10">
-        <v>0.8759987528742171</v>
+        <v>875998</v>
       </c>
       <c r="D10">
-        <v>0.6342428906837355</v>
+        <v>634242</v>
       </c>
       <c r="E10">
-        <v>0.4049090560101242</v>
+        <v>404909</v>
       </c>
       <c r="F10">
-        <v>0.5832191033261616</v>
+        <v>583219</v>
       </c>
       <c r="G10">
-        <v>0.5805623926913618</v>
+        <v>580562</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -799,19 +799,19 @@
         </is>
       </c>
       <c r="C11">
-        <v>0.4886786992163963</v>
+        <v>488678</v>
       </c>
       <c r="D11">
-        <v>0.6279195724227866</v>
+        <v>627919</v>
       </c>
       <c r="E11">
-        <v>0.8256295553744039</v>
+        <v>825629</v>
       </c>
       <c r="F11">
-        <v>0.9256885244164846</v>
+        <v>925688</v>
       </c>
       <c r="G11">
-        <v>1.193726719618514</v>
+        <v>1193726</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -841,19 +841,19 @@
         </is>
       </c>
       <c r="C12">
-        <v>1.980509196838512</v>
+        <v>1980509</v>
       </c>
       <c r="D12">
-        <v>2.332576397565834</v>
+        <v>2332576</v>
       </c>
       <c r="E12">
-        <v>2.780408918082023</v>
+        <v>2780408</v>
       </c>
       <c r="F12">
-        <v>2.998121650212137</v>
+        <v>2998121</v>
       </c>
       <c r="G12">
-        <v>2.477449506714952</v>
+        <v>2477449</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -883,19 +883,19 @@
         </is>
       </c>
       <c r="C13">
-        <v>1.971730012963801</v>
+        <v>1971730</v>
       </c>
       <c r="D13">
-        <v>2.890693539404566</v>
+        <v>2890693</v>
       </c>
       <c r="E13">
-        <v>2.798091853245973</v>
+        <v>2798091</v>
       </c>
       <c r="F13">
-        <v>2.379350527968789</v>
+        <v>2379350</v>
       </c>
       <c r="G13">
-        <v>2.51340104902692</v>
+        <v>2513401</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -925,19 +925,19 @@
         </is>
       </c>
       <c r="C14">
-        <v>5.850897409694937</v>
+        <v>5850897</v>
       </c>
       <c r="D14">
-        <v>1.447051985375557</v>
+        <v>1447051</v>
       </c>
       <c r="E14">
-        <v>1.544521472656817</v>
+        <v>1544521</v>
       </c>
       <c r="F14">
-        <v>2.84749256544928</v>
+        <v>2847492</v>
       </c>
       <c r="G14">
-        <v>3.208891872376995</v>
+        <v>3208891</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -967,19 +967,19 @@
         </is>
       </c>
       <c r="C15">
-        <v>5.426316577120843</v>
+        <v>5426316</v>
       </c>
       <c r="D15">
-        <v>1.242747598638556</v>
+        <v>1242747</v>
       </c>
       <c r="E15">
-        <v>1.42909351377089</v>
+        <v>1429093</v>
       </c>
       <c r="F15">
-        <v>4.068230165518132</v>
+        <v>4068230</v>
       </c>
       <c r="G15">
-        <v>3.325798206647284</v>
+        <v>3325798</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1009,19 +1009,19 @@
         </is>
       </c>
       <c r="C16">
-        <v>11.80085167909209</v>
+        <v>11800851</v>
       </c>
       <c r="D16">
-        <v>3.953130456154827</v>
+        <v>3953130</v>
       </c>
       <c r="E16">
-        <v>2.471667929327611</v>
+        <v>2471667</v>
       </c>
       <c r="F16">
-        <v>8.591660498093287</v>
+        <v>8591660</v>
       </c>
       <c r="G16">
-        <v>4.19488302895591</v>
+        <v>4194883</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="C17">
-        <v>12.66564223762975</v>
+        <v>12665642</v>
       </c>
       <c r="D17">
-        <v>3.785012069006099</v>
+        <v>3785012</v>
       </c>
       <c r="E17">
-        <v>2.895136151694221</v>
+        <v>2895136</v>
       </c>
       <c r="F17">
-        <v>8.687977784504442</v>
+        <v>8687977</v>
       </c>
       <c r="G17">
-        <v>4.56166942916103</v>
+        <v>4561669</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1093,19 +1093,19 @@
         </is>
       </c>
       <c r="C18">
-        <v>3.182922753094146</v>
+        <v>3182922</v>
       </c>
       <c r="D18">
-        <v>2.610410638755085</v>
+        <v>2610410</v>
       </c>
       <c r="E18">
-        <v>2.103626629454455</v>
+        <v>2103626</v>
       </c>
       <c r="F18">
-        <v>4.157515556628995</v>
+        <v>4157515</v>
       </c>
       <c r="G18">
-        <v>2.496416628870762</v>
+        <v>2496416</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1135,19 +1135,19 @@
         </is>
       </c>
       <c r="C19">
-        <v>2.951533647567998</v>
+        <v>2951533</v>
       </c>
       <c r="D19">
-        <v>2.27326533672496</v>
+        <v>2273265</v>
       </c>
       <c r="E19">
-        <v>1.60627364926529</v>
+        <v>1606273</v>
       </c>
       <c r="F19">
-        <v>3.569706750076061</v>
+        <v>3569706</v>
       </c>
       <c r="G19">
-        <v>2.200483280590829</v>
+        <v>2200483</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1177,19 +1177,19 @@
         </is>
       </c>
       <c r="C20">
-        <v>9.93392587341922</v>
+        <v>9933925</v>
       </c>
       <c r="D20">
-        <v>4.85934344565127</v>
+        <v>4859343</v>
       </c>
       <c r="E20">
-        <v>2.601952233558347</v>
+        <v>2601952</v>
       </c>
       <c r="F20">
-        <v>5.961856758578395</v>
+        <v>5961856</v>
       </c>
       <c r="G20">
-        <v>3.981558113123507</v>
+        <v>3981558</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1219,19 +1219,19 @@
         </is>
       </c>
       <c r="C21">
-        <v>9.233741440240738</v>
+        <v>9233741</v>
       </c>
       <c r="D21">
-        <v>5.211532383522023</v>
+        <v>5211532</v>
       </c>
       <c r="E21">
-        <v>3.303965413513571</v>
+        <v>3303965</v>
       </c>
       <c r="F21">
-        <v>5.845967236747191</v>
+        <v>5845967</v>
       </c>
       <c r="G21">
-        <v>4.204696245101908</v>
+        <v>4204696</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1261,19 +1261,19 @@
         </is>
       </c>
       <c r="C22">
-        <v>1.116164809567355</v>
+        <v>1116164</v>
       </c>
       <c r="D22">
-        <v>0.5611809557459385</v>
+        <v>561180</v>
       </c>
       <c r="E22">
-        <v>0.9185665649788417</v>
+        <v>918566</v>
       </c>
       <c r="F22">
-        <v>2.240290815369419</v>
+        <v>2240290</v>
       </c>
       <c r="G22">
-        <v>1.183578898448641</v>
+        <v>1183578</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1303,19 +1303,19 @@
         </is>
       </c>
       <c r="C23">
-        <v>1.227416963118326</v>
+        <v>1227416</v>
       </c>
       <c r="D23">
-        <v>0.5612742827561836</v>
+        <v>561274</v>
       </c>
       <c r="E23">
-        <v>1.142540148405656</v>
+        <v>1142540</v>
       </c>
       <c r="F23">
-        <v>2.301257440771168</v>
+        <v>2301257</v>
       </c>
       <c r="G23">
-        <v>1.20863534634306</v>
+        <v>1208635</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1345,19 +1345,19 @@
         </is>
       </c>
       <c r="C24">
-        <v>5.738324495867868</v>
+        <v>5738324</v>
       </c>
       <c r="D24">
-        <v>3.562472637660111</v>
+        <v>3562472</v>
       </c>
       <c r="E24">
-        <v>2.274961756689912</v>
+        <v>2274961</v>
       </c>
       <c r="F24">
-        <v>3.237690461464671</v>
+        <v>3237690</v>
       </c>
       <c r="G24">
-        <v>3.182157724365903</v>
+        <v>3182157</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1387,19 +1387,19 @@
         </is>
       </c>
       <c r="C25">
-        <v>6.126079259286745</v>
+        <v>6126079</v>
       </c>
       <c r="D25">
-        <v>3.44180170682659</v>
+        <v>3441801</v>
       </c>
       <c r="E25">
-        <v>2.30486620680115</v>
+        <v>2304866</v>
       </c>
       <c r="F25">
-        <v>2.891484830866676</v>
+        <v>2891484</v>
       </c>
       <c r="G25">
-        <v>4.633557913117302</v>
+        <v>4633557</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1429,19 +1429,19 @@
         </is>
       </c>
       <c r="C26">
-        <v>4.557230400698071</v>
+        <v>4557230</v>
       </c>
       <c r="D26">
-        <v>1.598606502387109</v>
+        <v>1598606</v>
       </c>
       <c r="E26">
-        <v>1.669370833678388</v>
+        <v>1669370</v>
       </c>
       <c r="F26">
-        <v>5.005476383168897</v>
+        <v>5005476</v>
       </c>
       <c r="G26">
-        <v>2.08345939879395</v>
+        <v>2083459</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1471,19 +1471,19 @@
         </is>
       </c>
       <c r="C27">
-        <v>5.408131731436578</v>
+        <v>5408131</v>
       </c>
       <c r="D27">
-        <v>1.971498775996105</v>
+        <v>1971498</v>
       </c>
       <c r="E27">
-        <v>1.699049621530909</v>
+        <v>1699049</v>
       </c>
       <c r="F27">
-        <v>5.9707706842626</v>
+        <v>5970770</v>
       </c>
       <c r="G27">
-        <v>2.458429729164687</v>
+        <v>2458429</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1513,19 +1513,19 @@
         </is>
       </c>
       <c r="C28">
-        <v>3.368752240794679</v>
+        <v>3368752</v>
       </c>
       <c r="D28">
-        <v>2.38132958444652</v>
+        <v>2381329</v>
       </c>
       <c r="E28">
-        <v>0.7769868340294002</v>
+        <v>776986</v>
       </c>
       <c r="F28">
-        <v>2.064493404380377</v>
+        <v>2064493</v>
       </c>
       <c r="G28">
-        <v>1.086750617866752</v>
+        <v>1086750</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1555,19 +1555,19 @@
         </is>
       </c>
       <c r="C29">
-        <v>3.280806090777739</v>
+        <v>3280806</v>
       </c>
       <c r="D29">
-        <v>2.366239769781912</v>
+        <v>2366239</v>
       </c>
       <c r="E29">
-        <v>0.799293569384978</v>
+        <v>799293</v>
       </c>
       <c r="F29">
-        <v>2.065066366784219</v>
+        <v>2065066</v>
       </c>
       <c r="G29">
-        <v>1.016039576293375</v>
+        <v>1016039</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1597,19 +1597,19 @@
         </is>
       </c>
       <c r="C30">
-        <v>1.24102601546618</v>
+        <v>1241026</v>
       </c>
       <c r="D30">
-        <v>1.302513418757113</v>
+        <v>1302513</v>
       </c>
       <c r="E30">
-        <v>0.8577426831362385</v>
+        <v>857742</v>
       </c>
       <c r="F30">
-        <v>1.92451579479376</v>
+        <v>1924515</v>
       </c>
       <c r="G30">
-        <v>0.5395388694414908</v>
+        <v>539538</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1639,19 +1639,19 @@
         </is>
       </c>
       <c r="C31">
-        <v>1.036509157583813</v>
+        <v>1036509</v>
       </c>
       <c r="D31">
-        <v>1.162907383715073</v>
+        <v>1162907</v>
       </c>
       <c r="E31">
-        <v>0.5990839804054461</v>
+        <v>599083</v>
       </c>
       <c r="F31">
-        <v>1.742675939195745</v>
+        <v>1742675</v>
       </c>
       <c r="G31">
-        <v>0.5371610839864697</v>
+        <v>537161</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1681,19 +1681,19 @@
         </is>
       </c>
       <c r="C32">
-        <v>1.00187883168221</v>
+        <v>1001878</v>
       </c>
       <c r="D32">
-        <v>1.329808014721771</v>
+        <v>1329808</v>
       </c>
       <c r="E32">
-        <v>1.115158217241882</v>
+        <v>1115158</v>
       </c>
       <c r="F32">
-        <v>1.306102745082655</v>
+        <v>1306102</v>
       </c>
       <c r="G32">
-        <v>1.365059997062957</v>
+        <v>1365059</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1723,19 +1723,19 @@
         </is>
       </c>
       <c r="C33">
-        <v>0.994958349080826</v>
+        <v>994958</v>
       </c>
       <c r="D33">
-        <v>1.405631062044025</v>
+        <v>1405631</v>
       </c>
       <c r="E33">
-        <v>1.138590061885977</v>
+        <v>1138590</v>
       </c>
       <c r="F33">
-        <v>1.010639443129768</v>
+        <v>1010639</v>
       </c>
       <c r="G33">
-        <v>1.078453790851838</v>
+        <v>1078453</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1765,19 +1765,19 @@
         </is>
       </c>
       <c r="C34">
-        <v>0.9478351298054599</v>
+        <v>947835</v>
       </c>
       <c r="D34">
-        <v>1.036139302819851</v>
+        <v>1036139</v>
       </c>
       <c r="E34">
-        <v>0.9843534996975519</v>
+        <v>984353</v>
       </c>
       <c r="F34">
-        <v>1.270387296833411</v>
+        <v>1270387</v>
       </c>
       <c r="G34">
-        <v>1.07100436637058</v>
+        <v>1071004</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1807,19 +1807,19 @@
         </is>
       </c>
       <c r="C35">
-        <v>1.58305133302072</v>
+        <v>1583051</v>
       </c>
       <c r="D35">
-        <v>1.648573235291153</v>
+        <v>1648573</v>
       </c>
       <c r="E35">
-        <v>1.21188131190916</v>
+        <v>1211881</v>
       </c>
       <c r="F35">
-        <v>1.288121242629068</v>
+        <v>1288121</v>
       </c>
       <c r="G35">
-        <v>1.300408022811919</v>
+        <v>1300408</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1849,19 +1849,19 @@
         </is>
       </c>
       <c r="C36">
-        <v>1.572116398714474</v>
+        <v>1572116</v>
       </c>
       <c r="D36">
-        <v>1.249384881918225</v>
+        <v>1249384</v>
       </c>
       <c r="E36">
-        <v>1.170600185518157</v>
+        <v>1170600</v>
       </c>
       <c r="F36">
-        <v>0.8381430439585408</v>
+        <v>838143</v>
       </c>
       <c r="G36">
-        <v>0.9131756920033907</v>
+        <v>913175</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1891,19 +1891,19 @@
         </is>
       </c>
       <c r="C37">
-        <v>1.869572006963706</v>
+        <v>1869572</v>
       </c>
       <c r="D37">
-        <v>1.570493506496582</v>
+        <v>1570493</v>
       </c>
       <c r="E37">
-        <v>1.06234209157555</v>
+        <v>1062342</v>
       </c>
       <c r="F37">
-        <v>1.409582962269143</v>
+        <v>1409582</v>
       </c>
       <c r="G37">
-        <v>1.336967468547413</v>
+        <v>1336967</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1933,19 +1933,19 @@
         </is>
       </c>
       <c r="C38">
-        <v>0.6609935220202893</v>
+        <v>660993</v>
       </c>
       <c r="D38">
-        <v>0.8416066316743029</v>
+        <v>841606</v>
       </c>
       <c r="E38">
-        <v>0.8510102492567295</v>
+        <v>851010</v>
       </c>
       <c r="F38">
-        <v>1.083176535338944</v>
+        <v>1083176</v>
       </c>
       <c r="G38">
-        <v>0.840292994632343</v>
+        <v>840292</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1975,19 +1975,19 @@
         </is>
       </c>
       <c r="C39">
-        <v>0.6340673687804989</v>
+        <v>634067</v>
       </c>
       <c r="D39">
-        <v>0.712626470223432</v>
+        <v>712626</v>
       </c>
       <c r="E39">
-        <v>0.918434290552534</v>
+        <v>918434</v>
       </c>
       <c r="F39">
-        <v>0.6807836959446341</v>
+        <v>680783</v>
       </c>
       <c r="G39">
-        <v>0.7949656130618802</v>
+        <v>794965</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="C40">
-        <v>0.8843614466460678</v>
+        <v>884361</v>
       </c>
       <c r="D40">
-        <v>0.8834485223163309</v>
+        <v>883448</v>
       </c>
       <c r="E40">
-        <v>0.8995331861670003</v>
+        <v>899533</v>
       </c>
       <c r="F40">
-        <v>1.244243104315233</v>
+        <v>1244243</v>
       </c>
       <c r="G40">
-        <v>0.8639168462237463</v>
+        <v>863916</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -2042,33 +2042,6 @@
         </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>CC_pos</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>CC-90011</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>mouse_40</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>CC</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Dex_neg</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
         <is>
           <t>CC_pos</t>
         </is>
